--- a/results/test phase/result.xlsx
+++ b/results/test phase/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/GitHub/BLP25-Task-2/results/test phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04308F-81B4-A540-888C-9B8E8EFAB640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A8D4B-62FA-0540-9080-771B63EE608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
+    <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" activeTab="1" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Compilation</t>
+  </si>
+  <si>
+    <t>TDD Generated Tests</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA8F-3F11-ED4E-AE6A-FF98F35EC729}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,10 +472,10 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +488,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -499,8 +505,11 @@
       <c r="D2" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="D3" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -527,8 +539,11 @@
       <c r="D4" s="1">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -541,8 +556,11 @@
       <c r="D5" s="1">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -555,8 +573,11 @@
       <c r="D6" s="1">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -569,8 +590,11 @@
       <c r="D7" s="1">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -583,8 +607,11 @@
       <c r="D8" s="1">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -605,10 +632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +644,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +663,13 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -665,8 +697,17 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -697,8 +738,17 @@
       <c r="J3">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>214</v>
+      </c>
+      <c r="L3">
+        <v>46</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -729,8 +779,17 @@
       <c r="J4">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>230</v>
+      </c>
+      <c r="L4">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -761,8 +820,17 @@
       <c r="J5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>234</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -793,8 +861,17 @@
       <c r="J6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>196</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -825,8 +902,17 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>191</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -857,8 +943,17 @@
       <c r="J8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>170</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -889,8 +984,17 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>188</v>
+      </c>
+      <c r="L9">
+        <v>49</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -923,10 +1027,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/test phase/result.xlsx
+++ b/results/test phase/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/GitHub/BLP25-Task-2/results/test phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A8D4B-62FA-0540-9080-771B63EE608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BB3C4-2458-BD4C-A967-8BAF7E632190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" activeTab="1" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>TDD Generated Tests</t>
+  </si>
+  <si>
+    <t>TDD Given Test</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA8F-3F11-ED4E-AE6A-FF98F35EC729}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +478,7 @@
     <col min="5" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +494,11 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,7 +515,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +532,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -543,7 +549,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -559,8 +565,11 @@
       <c r="E5" s="1">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -576,8 +585,11 @@
       <c r="E6" s="1">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -594,7 +606,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -611,7 +623,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -632,19 +644,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +681,13 @@
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -706,8 +724,17 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -748,7 +775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -789,7 +816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -830,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -870,8 +897,17 @@
       <c r="M6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>149</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -911,8 +947,17 @@
       <c r="M7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>119</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -953,7 +998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1027,11 +1072,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/test phase/result.xlsx
+++ b/results/test phase/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/GitHub/BLP25-Task-2/results/test phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BB3C4-2458-BD4C-A967-8BAF7E632190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB0D69-9D29-3C4F-A076-4BDBFF60478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" activeTab="1" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>TDD Given Test</t>
+  </si>
+  <si>
+    <t>TDD Given &amp; Generated Tests</t>
+  </si>
+  <si>
+    <t>Code Interpreter</t>
+  </si>
+  <si>
+    <t>Code Interpreter + TDD Given Test</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA8F-3F11-ED4E-AE6A-FF98F35EC729}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,9 +486,12 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +510,17 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -514,8 +536,20 @@
       <c r="E2" s="1">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -531,8 +565,20 @@
       <c r="E3">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -548,8 +594,20 @@
       <c r="E4" s="1">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -568,8 +626,17 @@
       <c r="F5" s="1">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -588,8 +655,17 @@
       <c r="F6" s="1">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="H6" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -605,8 +681,20 @@
       <c r="E7" s="1">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G7" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H7" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -622,8 +710,20 @@
       <c r="E8" s="1">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H8" s="1">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -636,6 +736,10 @@
       <c r="D9" s="1">
         <v>41</v>
       </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,10 +748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +762,7 @@
     <col min="16" max="16" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,8 +791,23 @@
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -733,8 +853,35 @@
       <c r="P2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -774,8 +921,44 @@
       <c r="M3">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>250</v>
+      </c>
+      <c r="O3">
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>204</v>
+      </c>
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>29</v>
+      </c>
+      <c r="T3">
+        <v>296</v>
+      </c>
+      <c r="U3">
+        <v>90</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>243</v>
+      </c>
+      <c r="X3">
+        <v>27</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -815,8 +998,44 @@
       <c r="M4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>261</v>
+      </c>
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>207</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>275</v>
+      </c>
+      <c r="U4">
+        <v>73</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>211</v>
+      </c>
+      <c r="X4">
+        <v>14</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -856,8 +1075,44 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>169</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>167</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>242</v>
+      </c>
+      <c r="U5">
+        <v>43</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>141</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -906,8 +1161,35 @@
       <c r="P6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>139</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>223</v>
+      </c>
+      <c r="U6">
+        <v>47</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>120</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -956,8 +1238,35 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>109</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>207</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>91</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -997,8 +1306,44 @@
       <c r="M8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>64</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>65</v>
+      </c>
+      <c r="R8">
+        <v>66</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>174</v>
+      </c>
+      <c r="U8">
+        <v>82</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>59</v>
+      </c>
+      <c r="X8">
+        <v>26</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1383,44 @@
       <c r="M9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>66</v>
+      </c>
+      <c r="O9">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>75</v>
+      </c>
+      <c r="R9">
+        <v>41</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>194</v>
+      </c>
+      <c r="U9">
+        <v>36</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>59</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1453,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>

--- a/results/test phase/result.xlsx
+++ b/results/test phase/result.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/GitHub/BLP25-Task-2/results/test phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB0D69-9D29-3C4F-A076-4BDBFF60478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A3834A37-7CF1-EE41-A265-A68855A56E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" activeTab="1" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
+    <workbookView xWindow="1200" yWindow="800" windowWidth="28480" windowHeight="17300" activeTab="2" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="Errors" sheetId="2" r:id="rId2"/>
+    <sheet name="accuracy" sheetId="1" r:id="rId1"/>
+    <sheet name="compilation_errors" sheetId="3" r:id="rId2"/>
+    <sheet name="increase" sheetId="4" r:id="rId3"/>
+    <sheet name="errors" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -72,9 +74,6 @@
     <t>GPT OSS 120B</t>
   </si>
   <si>
-    <t>Claude 3.5 Haiku</t>
-  </si>
-  <si>
     <t>Assertion</t>
   </si>
   <si>
@@ -97,12 +96,42 @@
   </si>
   <si>
     <t>Code Interpreter + TDD Given Test</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>TDD Generated</t>
+  </si>
+  <si>
+    <t>TDD Given</t>
+  </si>
+  <si>
+    <t>TDD Given &amp; Generated</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CI+TDD</t>
+  </si>
+  <si>
+    <t>Vanilla (baseline)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -132,9 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,7 +506,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +518,7 @@
     <col min="5" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -505,19 +535,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -525,28 +555,35 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>19.600000000000001</v>
+        <f>19.6/100</f>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4</v>
+        <f>12.4/100</f>
+        <v>0.124</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="1">
-        <v>39.6</v>
+        <f>39.6/100</f>
+        <v>0.39600000000000002</v>
       </c>
       <c r="F2" s="1">
-        <v>33.4</v>
+        <f>33.4/100</f>
+        <v>0.33399999999999996</v>
       </c>
       <c r="G2" s="1">
-        <v>48.2</v>
+        <f>48.2/100</f>
+        <v>0.48200000000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>22.6</v>
+        <f>22.6/100</f>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>42.2</v>
+        <f>42.2/100</f>
+        <v>0.42200000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,28 +591,36 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>9.8000000000000007</v>
+        <f>9.8/100</f>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>9.6</v>
+        <f>9.6/100</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="E3">
-        <v>40.6</v>
+        <f>12.4/100</f>
+        <v>0.124</v>
+      </c>
+      <c r="E3" s="1">
+        <f>40.6/100</f>
+        <v>0.40600000000000003</v>
       </c>
       <c r="F3" s="1">
-        <v>42.8</v>
+        <f>42.8/100</f>
+        <v>0.42799999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>51.8</v>
+        <f>51.8/100</f>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>30.4</v>
+        <f>30.4/100</f>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>54.8</v>
+        <f>54.8/100</f>
+        <v>0.54799999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -583,28 +628,36 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>35</v>
+        <f>35/100</f>
+        <v>0.35</v>
       </c>
       <c r="C4" s="1">
-        <v>32.799999999999997</v>
+        <f>32.8/100</f>
+        <v>0.32799999999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>34.200000000000003</v>
+        <f>34.2/100</f>
+        <v>0.34200000000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>44.8</v>
+        <f>44.8/100</f>
+        <v>0.44799999999999995</v>
       </c>
       <c r="F4" s="1">
-        <v>62.8</v>
+        <f>62.8/100</f>
+        <v>0.628</v>
       </c>
       <c r="G4" s="1">
-        <v>63.4</v>
+        <f>63.4/100</f>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>42.6</v>
+        <f>42.6/100</f>
+        <v>0.42599999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>69.599999999999994</v>
+        <f>69.6/100</f>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -612,28 +665,35 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>16.8</v>
+        <f>16.8/100</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>45.8</v>
+        <f>45.8/100</f>
+        <v>0.45799999999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>45.4</v>
+        <f>45.4/100</f>
+        <v>0.45399999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>51.6</v>
+        <f>51.6/100</f>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>67.599999999999994</v>
+        <f>67.6/100</f>
+        <v>0.67599999999999993</v>
       </c>
       <c r="G5" s="1">
-        <v>69.599999999999994</v>
+        <f>69.6/100</f>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H5" s="1">
-        <v>45.8</v>
+        <f>45.8/100</f>
+        <v>0.45799999999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>72</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -641,28 +701,35 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>42</v>
+        <f>42/100</f>
+        <v>0.42</v>
       </c>
       <c r="C6" s="1">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="D6" s="1">
-        <v>54.6</v>
+        <f>54.6/100</f>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E6" s="1">
-        <v>54.6</v>
+        <f>54.6/100</f>
+        <v>0.54600000000000004</v>
       </c>
       <c r="F6" s="1">
-        <v>74.400000000000006</v>
+        <f>74.4/100</f>
+        <v>0.74400000000000011</v>
       </c>
       <c r="G6" s="1">
-        <v>76.400000000000006</v>
+        <f>76.4/100</f>
+        <v>0.76400000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>54.4</v>
+        <f>54.4/100</f>
+        <v>0.54400000000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>80.599999999999994</v>
+        <f>80.6/100</f>
+        <v>0.80599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -670,28 +737,35 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>51</v>
+        <f>51/100</f>
+        <v>0.51</v>
       </c>
       <c r="C7" s="1">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="1">
-        <v>41.4</v>
+        <f>41.4/100</f>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>50.8</v>
+        <f>50.8/100</f>
+        <v>0.50800000000000001</v>
       </c>
       <c r="F7" s="1">
-        <v>75.400000000000006</v>
+        <f>75.4/100</f>
+        <v>0.754</v>
       </c>
       <c r="G7" s="1">
-        <v>72.599999999999994</v>
+        <f>72.6/100</f>
+        <v>0.72599999999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>48.6</v>
+        <f>48.6/100</f>
+        <v>0.48599999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>82.8</v>
+        <f>82.8/100</f>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,43 +773,44 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>54.4</v>
+        <f>54.4/100</f>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>54.6</v>
+        <f>54.6/100</f>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>46.8</v>
+        <f>46.8/100</f>
+        <v>0.46799999999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>52.2</v>
+        <f>52.2/100</f>
+        <v>0.52200000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>79</v>
+        <v>0.79</v>
       </c>
       <c r="G8" s="1">
-        <v>75.599999999999994</v>
+        <f>75.6/100</f>
+        <v>0.75599999999999989</v>
       </c>
       <c r="H8" s="1">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="I8" s="1">
-        <v>85</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D9" s="1">
-        <v>41</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
@@ -747,12 +822,565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4277-7578-C74C-ADA2-71E92BEECF1E}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <f>errors!D3/500</f>
+        <v>0.214</v>
+      </c>
+      <c r="C2" s="1">
+        <f>errors!G3/500</f>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <f>errors!J3/500</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <f>errors!M3/500</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>errors!P3/500</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>errors!S3/500</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>errors!V3/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>errors!Y3/500</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f>errors!D4/500</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <f>errors!G4/500</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <f>errors!J4/500</f>
+        <v>0.61</v>
+      </c>
+      <c r="E3" s="1">
+        <f>errors!M4/500</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f>errors!P4/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>errors!S4/500</f>
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="1">
+        <f>errors!V4/500</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>errors!Y4/500</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <f>errors!D5/500</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>errors!G5/500</f>
+        <v>0.154</v>
+      </c>
+      <c r="D4" s="1">
+        <f>errors!J5/500</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>errors!M5/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <f>errors!P5/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <f>errors!S5/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <f>errors!V5/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <f>errors!Y5/500</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <f>errors!D6/500</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <f>errors!G6/500</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f>errors!J6/500</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>errors!M6/500</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>errors!P6/500</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>errors!S6/500</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <f>errors!V6/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>errors!Y6/500</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <f>errors!D7/500</f>
+        <v>0.192</v>
+      </c>
+      <c r="C6" s="1">
+        <f>errors!G7/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <f>errors!J7/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>errors!M7/500</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f>errors!P7/500</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f>errors!S7/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <f>errors!V7/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <f>errors!Y7/500</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>errors!D8/500</f>
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="1">
+        <f>errors!G8/500</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>errors!J8/500</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>errors!M8/500</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>errors!P8/500</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f>errors!S8/500</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>errors!V8/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I7" s="1">
+        <f>errors!Y8/500</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <f>errors!D9/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>errors!G9/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <f>errors!J9/500</f>
+        <v>2E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>errors!M9/500</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>errors!P9/500</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <f>errors!S9/500</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>errors!V9/500</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>errors!Y9/500</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119BAECA-063A-C440-9249-2A582EB84810}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <f>19.6/100</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <f>MAX( accuracy!C2, accuracy!D2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="D2" s="1">
+        <f>MAX( accuracy!E2, accuracy!F2, accuracy!G2)</f>
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <f>accuracy!H2</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <f>accuracy!I2</f>
+        <v>0.42200000000000004</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f>9.8/100</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MAX( accuracy!C3, accuracy!D3)</f>
+        <v>0.124</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MAX( accuracy!E3, accuracy!F3, accuracy!G3)</f>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <f>accuracy!H3</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <f>accuracy!I3</f>
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <f>35/100</f>
+        <v>0.35</v>
+      </c>
+      <c r="C4" s="1">
+        <f>MAX( accuracy!C4, accuracy!D4)</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MAX( accuracy!E4, accuracy!F4, accuracy!G4)</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f>accuracy!H4</f>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <f>accuracy!I4</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <f>16.8/100</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MAX( accuracy!C5, accuracy!D5)</f>
+        <v>0.45799999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MAX( accuracy!E5, accuracy!F5, accuracy!G5)</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <f>accuracy!H5</f>
+        <v>0.45799999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <f>accuracy!I5</f>
+        <v>0.72</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <f>42/100</f>
+        <v>0.42</v>
+      </c>
+      <c r="C6" s="1">
+        <f>MAX( accuracy!C6, accuracy!D6)</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <f>MAX( accuracy!E6, accuracy!F6, accuracy!G6)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f>accuracy!H6</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F6" s="1">
+        <f>accuracy!I6</f>
+        <v>0.80599999999999994</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>51/100</f>
+        <v>0.51</v>
+      </c>
+      <c r="C7" s="1">
+        <f>MAX( accuracy!C7, accuracy!D7)</f>
+        <v>0.47</v>
+      </c>
+      <c r="D7" s="1">
+        <f>MAX( accuracy!E7, accuracy!F7, accuracy!G7)</f>
+        <v>0.754</v>
+      </c>
+      <c r="E7" s="1">
+        <f>accuracy!H7</f>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <f>accuracy!I7</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <f>54.4/100</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C8" s="1">
+        <f>MAX( accuracy!C8, accuracy!D8)</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <f>MAX( accuracy!E8, accuracy!F8, accuracy!G8)</f>
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="1">
+        <f>accuracy!H8</f>
+        <v>0.54</v>
+      </c>
+      <c r="F8" s="1">
+        <f>accuracy!I8</f>
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
+  <dimension ref="A1:Y30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,119 +1394,119 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
       <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
       <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1420,37 +2048,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>193</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>193</v>
-      </c>
-      <c r="F10">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>199</v>
-      </c>
-      <c r="I10">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>65</v>
-      </c>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
